--- a/dailyWorkReports/2024-02-21「あさか丸」当直ー作業日報.xlsx
+++ b/dailyWorkReports/2024-02-21「あさか丸」当直ー作業日報.xlsx
@@ -1518,7 +1518,7 @@
       </c>
       <c r="F4" s="102" t="inlineStr">
         <is>
-          <t>当直</t>
+          <t>日勤</t>
         </is>
       </c>
       <c r="G4" s="105" t="n"/>
